--- a/choice database.xlsx
+++ b/choice database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\private\Practice_code\hackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0002C10F-C03A-4A76-A711-E5F0D9153065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EE2CD0-8131-447A-9B2F-4FB6CDC4EB56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="4125" windowWidth="21600" windowHeight="11385" xr2:uid="{D34D7B65-5183-4732-BBCE-74357405329C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D34D7B65-5183-4732-BBCE-74357405329C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,12 +88,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -102,9 +117,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB7E98E-507A-4B29-A98E-877F12762448}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -508,6 +526,50 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8801043036672</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8801043036672</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8801117747602</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8801117747602</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/choice database.xlsx
+++ b/choice database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\private\Practice_code\hackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EE2CD0-8131-447A-9B2F-4FB6CDC4EB56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE5F6DA-F635-449C-9E7C-FBCE175DBCD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D34D7B65-5183-4732-BBCE-74357405329C}"/>
+    <workbookView xWindow="12180" yWindow="1815" windowWidth="16695" windowHeight="11385" xr2:uid="{D34D7B65-5183-4732-BBCE-74357405329C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="6">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB7E98E-507A-4B29-A98E-877F12762448}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -570,6 +570,160 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8801062880331</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8801062880331</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8801062380213</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8801062380213</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>8801062012701</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8801062012701</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>8801062012732</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8801062012732</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8801062894659</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>8801062894659</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8801062521241</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8801062521241</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8801062247431</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8801062247431</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/choice database.xlsx
+++ b/choice database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\private\Practice_code\hackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE5F6DA-F635-449C-9E7C-FBCE175DBCD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46794F7-5B48-4606-B9A7-93AD6935BC65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="1815" windowWidth="16695" windowHeight="11385" xr2:uid="{D34D7B65-5183-4732-BBCE-74357405329C}"/>
+    <workbookView xWindow="11070" yWindow="2400" windowWidth="16695" windowHeight="11385" xr2:uid="{D34D7B65-5183-4732-BBCE-74357405329C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB7E98E-507A-4B29-A98E-877F12762448}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -470,6 +470,9 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -481,6 +484,9 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -492,6 +498,9 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
+      <c r="D4">
+        <v>101</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -503,6 +512,9 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -513,6 +525,9 @@
       </c>
       <c r="C6" t="s">
         <v>4</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -525,6 +540,9 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -536,6 +554,9 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
+      <c r="D8">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -547,6 +568,9 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -558,6 +582,9 @@
       <c r="C10" t="s">
         <v>4</v>
       </c>
+      <c r="D10">
+        <v>136</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -569,6 +596,9 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -580,6 +610,9 @@
       <c r="C12" t="s">
         <v>4</v>
       </c>
+      <c r="D12">
+        <v>107</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -591,6 +624,9 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -602,6 +638,9 @@
       <c r="C14" t="s">
         <v>4</v>
       </c>
+      <c r="D14">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -613,6 +652,9 @@
       <c r="C15" t="s">
         <v>5</v>
       </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -624,8 +666,11 @@
       <c r="C16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -635,8 +680,11 @@
       <c r="C17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -646,8 +694,11 @@
       <c r="C18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -657,8 +708,11 @@
       <c r="C19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -668,8 +722,11 @@
       <c r="C20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -679,8 +736,11 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -690,8 +750,11 @@
       <c r="C22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -701,8 +764,11 @@
       <c r="C23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -712,8 +778,11 @@
       <c r="C24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -722,6 +791,9 @@
       </c>
       <c r="C25" t="s">
         <v>5</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
